--- a/raw_data/metadata.xlsx
+++ b/raw_data/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF3DA4C-51B7-BD48-933E-9F0DA5CC4177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C20AB-0578-EF4C-B3A3-BC0D93DEE646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16260" xr2:uid="{1D6D6247-8763-7240-99C2-409594371EA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="275">
   <si>
     <t>sample_id</t>
   </si>
@@ -831,6 +831,36 @@
   </si>
   <si>
     <t>TBLR08</t>
+  </si>
+  <si>
+    <t>structure_number</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -899,9 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -913,6 +940,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1229,280 +1259,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C20FF8-CFFA-9A48-91C2-CA4D661BB7BE}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
+      <selection activeCell="D2" sqref="D2:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>CONCATENATE(B2,"_",C2)</f>
+        <v>FBS_01</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,"_",C3)</f>
+        <v>FBS_02</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>4052386</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_03</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>4051749</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_04</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>4051738</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_05</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>4051735</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_06</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>4051754</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_07</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>4052882</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_08</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>4052702</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_09</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>4051107</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1512,23 +1583,27 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>4053309</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1538,23 +1613,27 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_11</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>4053309</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1564,23 +1643,27 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_12</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>4052373</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1590,23 +1673,27 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_13</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>4051806</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1616,23 +1703,27 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_14</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>4050212</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -1642,23 +1733,27 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_15</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>4050101</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1668,23 +1763,27 @@
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_16</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>4050101</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1694,23 +1793,27 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_17</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>4052933</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1720,23 +1823,27 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_18</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>4052818</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1746,23 +1853,27 @@
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_19</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>4051795</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1772,23 +1883,27 @@
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_20</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>4051716</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1798,23 +1913,27 @@
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_21</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>4052702</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -1824,23 +1943,27 @@
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_22</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>4050105</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1850,23 +1973,27 @@
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_23</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>4051764</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1876,23 +2003,27 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_24</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>4051718</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -1902,23 +2033,27 @@
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_25</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>4051804</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -1928,23 +2063,27 @@
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_26</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>4051804</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -1954,23 +2093,27 @@
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_27</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>4051799</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -1980,23 +2123,27 @@
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_28</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>4052905</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -2006,23 +2153,27 @@
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_29</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>4052882</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2032,23 +2183,27 @@
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_30</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>4052882</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2058,23 +2213,27 @@
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_31</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>4052882</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2084,23 +2243,27 @@
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_32</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>4052882</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2110,23 +2273,27 @@
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_33</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>4052882</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2136,23 +2303,27 @@
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_34</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>4052786</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -2162,23 +2333,27 @@
       <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_35</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>4051713</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -2188,23 +2363,27 @@
       <c r="C37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_36</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>4051745</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -2214,23 +2393,27 @@
       <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_37</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>4051745</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -2240,23 +2423,27 @@
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_38</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>4051093</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2266,23 +2453,27 @@
       <c r="C40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_39</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>4052558</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2292,23 +2483,27 @@
       <c r="C41" s="2">
         <v>40</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_40</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>4052558</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2318,23 +2513,27 @@
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_41</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>4052375</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2344,23 +2543,27 @@
       <c r="C43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_42</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>4052375</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -2370,23 +2573,27 @@
       <c r="C44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_43</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>4052375</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -2396,23 +2603,27 @@
       <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_44</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>4051791</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -2422,23 +2633,27 @@
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_45</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>4051792</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -2448,257 +2663,297 @@
       <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_46</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>4051813</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_01</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>4041748</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="3">
-        <v>2</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_02</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>4049186</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="2">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_03</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>4049186</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="2">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_04</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>4049186</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="2">
-        <v>5</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_05</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>4049186</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="2">
-        <v>6</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_06</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>4049186</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="2">
-        <v>7</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_07</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>4049186</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2">
-        <v>8</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_08</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>4049186</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="2">
-        <v>9</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_09</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>4049136</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
@@ -2708,49 +2963,57 @@
       <c r="C57" s="2">
         <v>10</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_10</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>4049186</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="3">
         <v>11</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_11</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="3">
         <v>4049186</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -2760,23 +3023,27 @@
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_12</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>4049186</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
@@ -2786,49 +3053,57 @@
       <c r="C60" s="2">
         <v>13</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_13</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>4049186</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="3">
         <v>14</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_14</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="3">
         <v>4049186</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>103</v>
       </c>
@@ -2838,23 +3113,27 @@
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_15</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>4049186</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>104</v>
       </c>
@@ -2864,23 +3143,27 @@
       <c r="C63" s="2">
         <v>16</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_16</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>4049186</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>105</v>
       </c>
@@ -2890,23 +3173,27 @@
       <c r="C64" s="2">
         <v>17</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_17</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>4050104</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
@@ -2916,23 +3203,27 @@
       <c r="C65" s="2">
         <v>18</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_18</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>4050104</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>107</v>
       </c>
@@ -2942,23 +3233,27 @@
       <c r="C66" s="2">
         <v>19</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_19</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>4048631</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
@@ -2968,49 +3263,57 @@
       <c r="C67" s="2">
         <v>20</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="2" t="str">
+        <f t="shared" ref="D67:D130" si="1">CONCATENATE(B67,"_",C67)</f>
+        <v>FER_20</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>4048644</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="3">
         <v>21</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_21</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="3">
         <v>4048638</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>110</v>
       </c>
@@ -3020,23 +3323,27 @@
       <c r="C69" s="2">
         <v>22</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_22</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>4048661</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
@@ -3046,23 +3353,27 @@
       <c r="C70" s="2">
         <v>23</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_23</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>112</v>
       </c>
@@ -3072,23 +3383,27 @@
       <c r="C71" s="2">
         <v>24</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_24</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="2">
         <v>4048793</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -3098,23 +3413,27 @@
       <c r="C72" s="2">
         <v>25</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_25</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>4048635</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -3124,23 +3443,27 @@
       <c r="C73" s="2">
         <v>26</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_26</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>4049469</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>115</v>
       </c>
@@ -3150,23 +3473,27 @@
       <c r="C74" s="2">
         <v>27</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_27</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>4048721</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
@@ -3176,23 +3503,27 @@
       <c r="C75" s="2">
         <v>28</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_28</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>4049790</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
@@ -3202,23 +3533,27 @@
       <c r="C76" s="2">
         <v>29</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_29</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>4050181</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G76" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
@@ -3228,23 +3563,27 @@
       <c r="C77" s="2">
         <v>30</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_30</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>4049626</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G77" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>119</v>
       </c>
@@ -3254,23 +3593,27 @@
       <c r="C78" s="2">
         <v>31</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_31</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>4050015</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -3280,23 +3623,27 @@
       <c r="C79" s="2">
         <v>32</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_32</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <v>4049528</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G79" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>121</v>
       </c>
@@ -3306,23 +3653,27 @@
       <c r="C80" s="2">
         <v>33</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_33</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>4049186</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
@@ -3332,23 +3683,27 @@
       <c r="C81" s="2">
         <v>34</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_34</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>4048313</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G81" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -3358,23 +3713,27 @@
       <c r="C82" s="2">
         <v>35</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_35</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <v>4048313</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G82" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -3384,23 +3743,27 @@
       <c r="C83" s="2">
         <v>36</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_36</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <v>4048313</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G83" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>125</v>
       </c>
@@ -3410,23 +3773,27 @@
       <c r="C84" s="2">
         <v>37</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_37</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84" s="2">
         <v>4047966</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
@@ -3436,23 +3803,27 @@
       <c r="C85" s="2">
         <v>38</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_38</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
         <v>4047966</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>127</v>
       </c>
@@ -3462,23 +3833,27 @@
       <c r="C86" s="2">
         <v>39</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_39</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="2">
         <v>4047930</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>128</v>
       </c>
@@ -3488,23 +3863,27 @@
       <c r="C87" s="2">
         <v>40</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_40</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87" s="2">
         <v>4050111</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>129</v>
       </c>
@@ -3514,23 +3893,27 @@
       <c r="C88" s="2">
         <v>41</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_41</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>4050090</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>130</v>
       </c>
@@ -3540,23 +3923,27 @@
       <c r="C89" s="2">
         <v>42</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_42</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <v>4049744</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>131</v>
       </c>
@@ -3566,23 +3953,27 @@
       <c r="C90" s="2">
         <v>43</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_43</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
         <v>4050208</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>132</v>
       </c>
@@ -3592,23 +3983,27 @@
       <c r="C91" s="2">
         <v>44</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_44</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>4048202</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -3618,23 +4013,27 @@
       <c r="C92" s="2">
         <v>45</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_45</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>4048318</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>134</v>
       </c>
@@ -3644,23 +4043,27 @@
       <c r="C93" s="2">
         <v>46</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_46</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <v>4049067</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>135</v>
       </c>
@@ -3670,23 +4073,27 @@
       <c r="C94" s="2">
         <v>47</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_47</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>4049649</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>136</v>
       </c>
@@ -3696,23 +4103,27 @@
       <c r="C95" s="2">
         <v>48</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_48</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>4050015</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>137</v>
       </c>
@@ -3722,23 +4133,27 @@
       <c r="C96" s="2">
         <v>49</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_49</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96" s="2">
         <v>4050015</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>138</v>
       </c>
@@ -3748,23 +4163,27 @@
       <c r="C97" s="2">
         <v>50</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_50</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <v>4049239</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>139</v>
       </c>
@@ -3774,23 +4193,27 @@
       <c r="C98" s="2">
         <v>51</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_51</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <v>4049239</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>140</v>
       </c>
@@ -3800,23 +4223,27 @@
       <c r="C99" s="2">
         <v>52</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_52</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <v>4049178</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
@@ -3826,23 +4253,27 @@
       <c r="C100" s="2">
         <v>53</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_53</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <v>4049178</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>142</v>
       </c>
@@ -3852,23 +4283,27 @@
       <c r="C101" s="2">
         <v>54</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_54</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="2">
         <v>4049178</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>143</v>
       </c>
@@ -3878,23 +4313,27 @@
       <c r="C102" s="2">
         <v>55</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_55</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="2">
         <v>4049178</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>144</v>
       </c>
@@ -3904,23 +4343,27 @@
       <c r="C103" s="2">
         <v>56</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_56</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <v>4049178</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>145</v>
       </c>
@@ -3930,23 +4373,27 @@
       <c r="C104" s="2">
         <v>57</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_57</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>4049178</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>146</v>
       </c>
@@ -3956,23 +4403,27 @@
       <c r="C105" s="2">
         <v>58</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_58</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="2">
         <v>4048916</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>147</v>
       </c>
@@ -3982,23 +4433,27 @@
       <c r="C106" s="2">
         <v>59</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_59</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <v>4048646</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G106" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>148</v>
       </c>
@@ -4008,23 +4463,27 @@
       <c r="C107" s="2">
         <v>60</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_60</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <v>4048426</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>149</v>
       </c>
@@ -4034,23 +4493,27 @@
       <c r="C108" s="2">
         <v>61</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_61</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108" s="2">
         <v>4049239</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
@@ -4060,23 +4523,27 @@
       <c r="C109" s="2">
         <v>62</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_62</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <v>4050021</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
@@ -4086,23 +4553,27 @@
       <c r="C110" s="2">
         <v>63</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_63</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="2">
         <v>4050029</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>152</v>
       </c>
@@ -4112,23 +4583,27 @@
       <c r="C111" s="2">
         <v>64</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_64</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="2">
         <v>4050011</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>153</v>
       </c>
@@ -4138,23 +4613,27 @@
       <c r="C112" s="2">
         <v>65</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_65</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112" s="2">
         <v>4050011</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>154</v>
       </c>
@@ -4164,23 +4643,27 @@
       <c r="C113" s="2">
         <v>66</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_66</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <v>4050011</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G113" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
@@ -4190,23 +4673,27 @@
       <c r="C114" s="2">
         <v>68</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_68</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <v>4050010</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>156</v>
       </c>
@@ -4216,23 +4703,27 @@
       <c r="C115" s="2">
         <v>69</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_69</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>4050003</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>157</v>
       </c>
@@ -4242,23 +4733,27 @@
       <c r="C116" s="2">
         <v>70</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_70</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="2">
         <v>4050003</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
@@ -4268,23 +4763,27 @@
       <c r="C117" s="2">
         <v>71</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_71</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="2">
         <v>4050015</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
@@ -4294,23 +4793,27 @@
       <c r="C118" s="2">
         <v>31</v>
       </c>
-      <c r="D118" t="s">
-        <v>165</v>
+      <c r="D118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_31</v>
       </c>
       <c r="E118" t="s">
         <v>165</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" t="s">
+        <v>165</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
@@ -4320,23 +4823,27 @@
       <c r="C119" s="2">
         <v>32</v>
       </c>
-      <c r="D119" t="s">
-        <v>165</v>
+      <c r="D119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_32</v>
       </c>
       <c r="E119" t="s">
         <v>165</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" t="s">
+        <v>165</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>244</v>
       </c>
@@ -4346,23 +4853,27 @@
       <c r="C120" s="2">
         <v>33</v>
       </c>
-      <c r="D120" t="s">
-        <v>165</v>
+      <c r="D120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_33</v>
       </c>
       <c r="E120" t="s">
         <v>165</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" t="s">
+        <v>165</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -4372,23 +4883,27 @@
       <c r="C121" s="2">
         <v>34</v>
       </c>
-      <c r="D121" t="s">
-        <v>165</v>
+      <c r="D121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_34</v>
       </c>
       <c r="E121" t="s">
         <v>165</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -4398,23 +4913,27 @@
       <c r="C122" s="2">
         <v>35</v>
       </c>
-      <c r="D122" t="s">
-        <v>165</v>
+      <c r="D122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_35</v>
       </c>
       <c r="E122" t="s">
         <v>165</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" t="s">
+        <v>165</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>247</v>
       </c>
@@ -4424,23 +4943,27 @@
       <c r="C123" s="2">
         <v>36</v>
       </c>
-      <c r="D123" t="s">
-        <v>165</v>
+      <c r="D123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_36</v>
       </c>
       <c r="E123" t="s">
         <v>165</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" t="s">
+        <v>165</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>248</v>
       </c>
@@ -4450,23 +4973,27 @@
       <c r="C124" s="2">
         <v>37</v>
       </c>
-      <c r="D124" t="s">
-        <v>165</v>
+      <c r="D124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_37</v>
       </c>
       <c r="E124" t="s">
         <v>165</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" t="s">
+        <v>165</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
@@ -4476,23 +5003,27 @@
       <c r="C125" s="2">
         <v>39</v>
       </c>
-      <c r="D125" t="s">
-        <v>165</v>
+      <c r="D125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_39</v>
       </c>
       <c r="E125" t="s">
         <v>165</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -4502,23 +5033,27 @@
       <c r="C126" s="2">
         <v>41</v>
       </c>
-      <c r="D126" t="s">
-        <v>165</v>
+      <c r="D126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_41</v>
       </c>
       <c r="E126" t="s">
         <v>165</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" t="s">
+        <v>165</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -4528,23 +5063,27 @@
       <c r="C127" s="2">
         <v>44</v>
       </c>
-      <c r="D127" t="s">
-        <v>165</v>
+      <c r="D127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_44</v>
       </c>
       <c r="E127" t="s">
         <v>165</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" t="s">
+        <v>165</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -4554,23 +5093,27 @@
       <c r="C128" s="2">
         <v>46</v>
       </c>
-      <c r="D128" t="s">
-        <v>165</v>
+      <c r="D128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_46</v>
       </c>
       <c r="E128" t="s">
         <v>165</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>254</v>
       </c>
@@ -4580,227 +5123,263 @@
       <c r="C129" s="2">
         <v>49</v>
       </c>
-      <c r="D129" t="s">
-        <v>165</v>
+      <c r="D129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>GRSPB_49</v>
       </c>
       <c r="E129" t="s">
         <v>165</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" t="s">
+        <v>165</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>165</v>
+      <c r="C130" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TBLR_01</v>
       </c>
       <c r="E130" t="s">
         <v>165</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" t="s">
+        <v>165</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C131" s="2">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>165</v>
+      <c r="C131" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="2" t="str">
+        <f t="shared" ref="D131:D137" si="2">CONCATENATE(B131,"_",C131)</f>
+        <v>TBLR_02</v>
       </c>
       <c r="E131" t="s">
         <v>165</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" t="s">
+        <v>165</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C132" s="2">
-        <v>3</v>
-      </c>
-      <c r="D132" t="s">
-        <v>165</v>
+      <c r="C132" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TBLR_03</v>
       </c>
       <c r="E132" t="s">
         <v>165</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" t="s">
+        <v>165</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C133" s="2">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>165</v>
+      <c r="C133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TBLR_04</v>
       </c>
       <c r="E133" t="s">
         <v>165</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" t="s">
+        <v>165</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C134" s="2">
-        <v>5</v>
-      </c>
-      <c r="D134" t="s">
-        <v>165</v>
+      <c r="C134" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TBLR_05</v>
       </c>
       <c r="E134" t="s">
         <v>165</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" t="s">
+        <v>165</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C135" s="2">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s">
-        <v>165</v>
+      <c r="C135" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TBLR_06</v>
       </c>
       <c r="E135" t="s">
         <v>165</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" t="s">
+        <v>165</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C136" s="2">
-        <v>7</v>
-      </c>
-      <c r="D136" t="s">
-        <v>165</v>
+      <c r="C136" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TBLR_07</v>
       </c>
       <c r="E136" t="s">
         <v>165</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" t="s">
+        <v>165</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C137" s="2">
-        <v>8</v>
-      </c>
-      <c r="D137" t="s">
-        <v>165</v>
+      <c r="C137" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TBLR_08</v>
       </c>
       <c r="E137" t="s">
         <v>165</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" t="s">
+        <v>165</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>242</v>
       </c>
     </row>

--- a/raw_data/metadata.xlsx
+++ b/raw_data/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C20AB-0578-EF4C-B3A3-BC0D93DEE646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07A264-0A83-3E40-B9C8-9F57C90F3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16260" xr2:uid="{1D6D6247-8763-7240-99C2-409594371EA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="411">
   <si>
     <t>sample_id</t>
   </si>
@@ -861,6 +861,414 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>FBS_01</t>
+  </si>
+  <si>
+    <t>FBS_02</t>
+  </si>
+  <si>
+    <t>FBS_03</t>
+  </si>
+  <si>
+    <t>FBS_04</t>
+  </si>
+  <si>
+    <t>FBS_05</t>
+  </si>
+  <si>
+    <t>FBS_06</t>
+  </si>
+  <si>
+    <t>FBS_07</t>
+  </si>
+  <si>
+    <t>FBS_08</t>
+  </si>
+  <si>
+    <t>FBS_09</t>
+  </si>
+  <si>
+    <t>FBS_10</t>
+  </si>
+  <si>
+    <t>FBS_11</t>
+  </si>
+  <si>
+    <t>FBS_12</t>
+  </si>
+  <si>
+    <t>FBS_13</t>
+  </si>
+  <si>
+    <t>FBS_14</t>
+  </si>
+  <si>
+    <t>FBS_15</t>
+  </si>
+  <si>
+    <t>FBS_16</t>
+  </si>
+  <si>
+    <t>FBS_17</t>
+  </si>
+  <si>
+    <t>FBS_18</t>
+  </si>
+  <si>
+    <t>FBS_19</t>
+  </si>
+  <si>
+    <t>FBS_20</t>
+  </si>
+  <si>
+    <t>FBS_21</t>
+  </si>
+  <si>
+    <t>FBS_22</t>
+  </si>
+  <si>
+    <t>FBS_23</t>
+  </si>
+  <si>
+    <t>FBS_24</t>
+  </si>
+  <si>
+    <t>FBS_25</t>
+  </si>
+  <si>
+    <t>FBS_26</t>
+  </si>
+  <si>
+    <t>FBS_27</t>
+  </si>
+  <si>
+    <t>FBS_28</t>
+  </si>
+  <si>
+    <t>FBS_29</t>
+  </si>
+  <si>
+    <t>FBS_30</t>
+  </si>
+  <si>
+    <t>FBS_31</t>
+  </si>
+  <si>
+    <t>FBS_32</t>
+  </si>
+  <si>
+    <t>FBS_33</t>
+  </si>
+  <si>
+    <t>FBS_34</t>
+  </si>
+  <si>
+    <t>FBS_35</t>
+  </si>
+  <si>
+    <t>FBS_36</t>
+  </si>
+  <si>
+    <t>FBS_37</t>
+  </si>
+  <si>
+    <t>FBS_38</t>
+  </si>
+  <si>
+    <t>FBS_39</t>
+  </si>
+  <si>
+    <t>FBS_40</t>
+  </si>
+  <si>
+    <t>FBS_41</t>
+  </si>
+  <si>
+    <t>FBS_42</t>
+  </si>
+  <si>
+    <t>FBS_43</t>
+  </si>
+  <si>
+    <t>FBS_44</t>
+  </si>
+  <si>
+    <t>FBS_45</t>
+  </si>
+  <si>
+    <t>FBS_46</t>
+  </si>
+  <si>
+    <t>FER_01</t>
+  </si>
+  <si>
+    <t>FER_02</t>
+  </si>
+  <si>
+    <t>FER_03</t>
+  </si>
+  <si>
+    <t>FER_04</t>
+  </si>
+  <si>
+    <t>FER_05</t>
+  </si>
+  <si>
+    <t>FER_06</t>
+  </si>
+  <si>
+    <t>FER_07</t>
+  </si>
+  <si>
+    <t>FER_08</t>
+  </si>
+  <si>
+    <t>FER_09</t>
+  </si>
+  <si>
+    <t>FER_10</t>
+  </si>
+  <si>
+    <t>FER_11</t>
+  </si>
+  <si>
+    <t>FER_12</t>
+  </si>
+  <si>
+    <t>FER_13</t>
+  </si>
+  <si>
+    <t>FER_14</t>
+  </si>
+  <si>
+    <t>FER_15</t>
+  </si>
+  <si>
+    <t>FER_16</t>
+  </si>
+  <si>
+    <t>FER_17</t>
+  </si>
+  <si>
+    <t>FER_18</t>
+  </si>
+  <si>
+    <t>FER_19</t>
+  </si>
+  <si>
+    <t>FER_20</t>
+  </si>
+  <si>
+    <t>FER_21</t>
+  </si>
+  <si>
+    <t>FER_22</t>
+  </si>
+  <si>
+    <t>FER_23</t>
+  </si>
+  <si>
+    <t>FER_24</t>
+  </si>
+  <si>
+    <t>FER_25</t>
+  </si>
+  <si>
+    <t>FER_26</t>
+  </si>
+  <si>
+    <t>FER_27</t>
+  </si>
+  <si>
+    <t>FER_28</t>
+  </si>
+  <si>
+    <t>FER_29</t>
+  </si>
+  <si>
+    <t>FER_30</t>
+  </si>
+  <si>
+    <t>FER_31</t>
+  </si>
+  <si>
+    <t>FER_32</t>
+  </si>
+  <si>
+    <t>FER_33</t>
+  </si>
+  <si>
+    <t>FER_34</t>
+  </si>
+  <si>
+    <t>FER_35</t>
+  </si>
+  <si>
+    <t>FER_36</t>
+  </si>
+  <si>
+    <t>FER_37</t>
+  </si>
+  <si>
+    <t>FER_38</t>
+  </si>
+  <si>
+    <t>FER_39</t>
+  </si>
+  <si>
+    <t>FER_40</t>
+  </si>
+  <si>
+    <t>FER_41</t>
+  </si>
+  <si>
+    <t>FER_42</t>
+  </si>
+  <si>
+    <t>FER_43</t>
+  </si>
+  <si>
+    <t>FER_44</t>
+  </si>
+  <si>
+    <t>FER_45</t>
+  </si>
+  <si>
+    <t>FER_46</t>
+  </si>
+  <si>
+    <t>FER_47</t>
+  </si>
+  <si>
+    <t>FER_48</t>
+  </si>
+  <si>
+    <t>FER_49</t>
+  </si>
+  <si>
+    <t>FER_50</t>
+  </si>
+  <si>
+    <t>FER_51</t>
+  </si>
+  <si>
+    <t>FER_52</t>
+  </si>
+  <si>
+    <t>FER_53</t>
+  </si>
+  <si>
+    <t>FER_54</t>
+  </si>
+  <si>
+    <t>FER_55</t>
+  </si>
+  <si>
+    <t>FER_56</t>
+  </si>
+  <si>
+    <t>FER_57</t>
+  </si>
+  <si>
+    <t>FER_58</t>
+  </si>
+  <si>
+    <t>FER_59</t>
+  </si>
+  <si>
+    <t>FER_60</t>
+  </si>
+  <si>
+    <t>FER_61</t>
+  </si>
+  <si>
+    <t>FER_62</t>
+  </si>
+  <si>
+    <t>FER_63</t>
+  </si>
+  <si>
+    <t>FER_64</t>
+  </si>
+  <si>
+    <t>FER_65</t>
+  </si>
+  <si>
+    <t>FER_66</t>
+  </si>
+  <si>
+    <t>FER_68</t>
+  </si>
+  <si>
+    <t>FER_69</t>
+  </si>
+  <si>
+    <t>FER_70</t>
+  </si>
+  <si>
+    <t>FER_71</t>
+  </si>
+  <si>
+    <t>GRSPB_31</t>
+  </si>
+  <si>
+    <t>GRSPB_32</t>
+  </si>
+  <si>
+    <t>GRSPB_33</t>
+  </si>
+  <si>
+    <t>GRSPB_34</t>
+  </si>
+  <si>
+    <t>GRSPB_35</t>
+  </si>
+  <si>
+    <t>GRSPB_36</t>
+  </si>
+  <si>
+    <t>GRSPB_37</t>
+  </si>
+  <si>
+    <t>GRSPB_39</t>
+  </si>
+  <si>
+    <t>GRSPB_41</t>
+  </si>
+  <si>
+    <t>GRSPB_44</t>
+  </si>
+  <si>
+    <t>GRSPB_46</t>
+  </si>
+  <si>
+    <t>GRSPB_49</t>
+  </si>
+  <si>
+    <t>TBLR_01</t>
+  </si>
+  <si>
+    <t>TBLR_02</t>
+  </si>
+  <si>
+    <t>TBLR_03</t>
+  </si>
+  <si>
+    <t>TBLR_04</t>
+  </si>
+  <si>
+    <t>TBLR_05</t>
+  </si>
+  <si>
+    <t>TBLR_06</t>
+  </si>
+  <si>
+    <t>TBLR_07</t>
+  </si>
+  <si>
+    <t>TBLR_08</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1670,7 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D137"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,9 +1721,8 @@
       <c r="C2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <f>CONCATENATE(B2,"_",C2)</f>
-        <v>FBS_01</v>
+      <c r="D2" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>165</v>
@@ -1343,9 +1750,8 @@
       <c r="C3" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,"_",C3)</f>
-        <v>FBS_02</v>
+      <c r="D3" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>166</v>
@@ -1373,9 +1779,8 @@
       <c r="C4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_03</v>
+      <c r="D4" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>167</v>
@@ -1403,9 +1808,8 @@
       <c r="C5" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_04</v>
+      <c r="D5" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>168</v>
@@ -1433,9 +1837,8 @@
       <c r="C6" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_05</v>
+      <c r="D6" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>168</v>
@@ -1463,9 +1866,8 @@
       <c r="C7" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_06</v>
+      <c r="D7" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>169</v>
@@ -1493,9 +1895,8 @@
       <c r="C8" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_07</v>
+      <c r="D8" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>170</v>
@@ -1523,9 +1924,8 @@
       <c r="C9" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_08</v>
+      <c r="D9" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>171</v>
@@ -1553,9 +1953,8 @@
       <c r="C10" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_09</v>
+      <c r="D10" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>172</v>
@@ -1583,9 +1982,8 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_10</v>
+      <c r="D11" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>173</v>
@@ -1613,9 +2011,8 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_11</v>
+      <c r="D12" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>173</v>
@@ -1643,9 +2040,8 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_12</v>
+      <c r="D13" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>174</v>
@@ -1673,9 +2069,8 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_13</v>
+      <c r="D14" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>175</v>
@@ -1703,9 +2098,8 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_14</v>
+      <c r="D15" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>176</v>
@@ -1733,9 +2127,8 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_15</v>
+      <c r="D16" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>177</v>
@@ -1763,9 +2156,8 @@
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_16</v>
+      <c r="D17" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>177</v>
@@ -1793,9 +2185,8 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_17</v>
+      <c r="D18" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>178</v>
@@ -1823,9 +2214,8 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_18</v>
+      <c r="D19" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>179</v>
@@ -1853,9 +2243,8 @@
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_19</v>
+      <c r="D20" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>180</v>
@@ -1883,9 +2272,8 @@
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_20</v>
+      <c r="D21" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>181</v>
@@ -1913,9 +2301,8 @@
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_21</v>
+      <c r="D22" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>171</v>
@@ -1943,9 +2330,8 @@
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_22</v>
+      <c r="D23" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>182</v>
@@ -1973,9 +2359,8 @@
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_23</v>
+      <c r="D24" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>183</v>
@@ -2003,9 +2388,8 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_24</v>
+      <c r="D25" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>184</v>
@@ -2033,9 +2417,8 @@
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_25</v>
+      <c r="D26" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>185</v>
@@ -2063,9 +2446,8 @@
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_26</v>
+      <c r="D27" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>185</v>
@@ -2093,9 +2475,8 @@
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_27</v>
+      <c r="D28" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>186</v>
@@ -2123,9 +2504,8 @@
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_28</v>
+      <c r="D29" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>187</v>
@@ -2153,9 +2533,8 @@
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_29</v>
+      <c r="D30" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>188</v>
@@ -2183,9 +2562,8 @@
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_30</v>
+      <c r="D31" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>188</v>
@@ -2213,9 +2591,8 @@
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_31</v>
+      <c r="D32" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>188</v>
@@ -2243,9 +2620,8 @@
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_32</v>
+      <c r="D33" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>188</v>
@@ -2273,9 +2649,8 @@
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_33</v>
+      <c r="D34" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>188</v>
@@ -2303,9 +2678,8 @@
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_34</v>
+      <c r="D35" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>189</v>
@@ -2333,9 +2707,8 @@
       <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_35</v>
+      <c r="D36" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>190</v>
@@ -2363,9 +2736,8 @@
       <c r="C37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_36</v>
+      <c r="D37" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>191</v>
@@ -2393,9 +2765,8 @@
       <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_37</v>
+      <c r="D38" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>191</v>
@@ -2423,9 +2794,8 @@
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_38</v>
+      <c r="D39" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>192</v>
@@ -2453,9 +2823,8 @@
       <c r="C40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_39</v>
+      <c r="D40" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>193</v>
@@ -2483,9 +2852,8 @@
       <c r="C41" s="2">
         <v>40</v>
       </c>
-      <c r="D41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_40</v>
+      <c r="D41" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>193</v>
@@ -2513,9 +2881,8 @@
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_41</v>
+      <c r="D42" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>194</v>
@@ -2543,9 +2910,8 @@
       <c r="C43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_42</v>
+      <c r="D43" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>194</v>
@@ -2573,9 +2939,8 @@
       <c r="C44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_43</v>
+      <c r="D44" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>194</v>
@@ -2603,9 +2968,8 @@
       <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_44</v>
+      <c r="D45" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>195</v>
@@ -2633,9 +2997,8 @@
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_45</v>
+      <c r="D46" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>196</v>
@@ -2663,9 +3026,8 @@
       <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_46</v>
+      <c r="D47" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>197</v>
@@ -2693,9 +3055,8 @@
       <c r="C48" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_01</v>
+      <c r="D48" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>198</v>
@@ -2723,9 +3084,8 @@
       <c r="C49" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_02</v>
+      <c r="D49" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>199</v>
@@ -2753,9 +3113,8 @@
       <c r="C50" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_03</v>
+      <c r="D50" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>199</v>
@@ -2783,9 +3142,8 @@
       <c r="C51" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_04</v>
+      <c r="D51" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>199</v>
@@ -2813,9 +3171,8 @@
       <c r="C52" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_05</v>
+      <c r="D52" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>199</v>
@@ -2843,9 +3200,8 @@
       <c r="C53" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_06</v>
+      <c r="D53" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>199</v>
@@ -2873,9 +3229,8 @@
       <c r="C54" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_07</v>
+      <c r="D54" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>199</v>
@@ -2903,9 +3258,8 @@
       <c r="C55" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_08</v>
+      <c r="D55" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>199</v>
@@ -2933,9 +3287,8 @@
       <c r="C56" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_09</v>
+      <c r="D56" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>199</v>
@@ -2963,9 +3316,8 @@
       <c r="C57" s="2">
         <v>10</v>
       </c>
-      <c r="D57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_10</v>
+      <c r="D57" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>199</v>
@@ -2993,9 +3345,8 @@
       <c r="C58" s="3">
         <v>11</v>
       </c>
-      <c r="D58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_11</v>
+      <c r="D58" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>199</v>
@@ -3023,9 +3374,8 @@
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_12</v>
+      <c r="D59" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>199</v>
@@ -3053,9 +3403,8 @@
       <c r="C60" s="2">
         <v>13</v>
       </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_13</v>
+      <c r="D60" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>199</v>
@@ -3083,9 +3432,8 @@
       <c r="C61" s="3">
         <v>14</v>
       </c>
-      <c r="D61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_14</v>
+      <c r="D61" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>199</v>
@@ -3113,9 +3461,8 @@
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_15</v>
+      <c r="D62" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>199</v>
@@ -3143,9 +3490,8 @@
       <c r="C63" s="2">
         <v>16</v>
       </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_16</v>
+      <c r="D63" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>199</v>
@@ -3173,9 +3519,8 @@
       <c r="C64" s="2">
         <v>17</v>
       </c>
-      <c r="D64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_17</v>
+      <c r="D64" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>200</v>
@@ -3203,9 +3548,8 @@
       <c r="C65" s="2">
         <v>18</v>
       </c>
-      <c r="D65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_18</v>
+      <c r="D65" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>200</v>
@@ -3233,9 +3577,8 @@
       <c r="C66" s="2">
         <v>19</v>
       </c>
-      <c r="D66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_19</v>
+      <c r="D66" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>201</v>
@@ -3263,9 +3606,8 @@
       <c r="C67" s="2">
         <v>20</v>
       </c>
-      <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D130" si="1">CONCATENATE(B67,"_",C67)</f>
-        <v>FER_20</v>
+      <c r="D67" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>202</v>
@@ -3293,9 +3635,8 @@
       <c r="C68" s="3">
         <v>21</v>
       </c>
-      <c r="D68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_21</v>
+      <c r="D68" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>203</v>
@@ -3323,9 +3664,8 @@
       <c r="C69" s="2">
         <v>22</v>
       </c>
-      <c r="D69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_22</v>
+      <c r="D69" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>204</v>
@@ -3353,9 +3693,8 @@
       <c r="C70" s="2">
         <v>23</v>
       </c>
-      <c r="D70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_23</v>
+      <c r="D70" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>205</v>
@@ -3383,9 +3722,8 @@
       <c r="C71" s="2">
         <v>24</v>
       </c>
-      <c r="D71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_24</v>
+      <c r="D71" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>206</v>
@@ -3413,9 +3751,8 @@
       <c r="C72" s="2">
         <v>25</v>
       </c>
-      <c r="D72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_25</v>
+      <c r="D72" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>207</v>
@@ -3443,9 +3780,8 @@
       <c r="C73" s="2">
         <v>26</v>
       </c>
-      <c r="D73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_26</v>
+      <c r="D73" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>208</v>
@@ -3473,9 +3809,8 @@
       <c r="C74" s="2">
         <v>27</v>
       </c>
-      <c r="D74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_27</v>
+      <c r="D74" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>209</v>
@@ -3503,9 +3838,8 @@
       <c r="C75" s="2">
         <v>28</v>
       </c>
-      <c r="D75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_28</v>
+      <c r="D75" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>210</v>
@@ -3533,9 +3867,8 @@
       <c r="C76" s="2">
         <v>29</v>
       </c>
-      <c r="D76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_29</v>
+      <c r="D76" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>211</v>
@@ -3563,9 +3896,8 @@
       <c r="C77" s="2">
         <v>30</v>
       </c>
-      <c r="D77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_30</v>
+      <c r="D77" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>212</v>
@@ -3593,9 +3925,8 @@
       <c r="C78" s="2">
         <v>31</v>
       </c>
-      <c r="D78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_31</v>
+      <c r="D78" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>213</v>
@@ -3623,9 +3954,8 @@
       <c r="C79" s="2">
         <v>32</v>
       </c>
-      <c r="D79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_32</v>
+      <c r="D79" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>214</v>
@@ -3653,9 +3983,8 @@
       <c r="C80" s="2">
         <v>33</v>
       </c>
-      <c r="D80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_33</v>
+      <c r="D80" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>215</v>
@@ -3683,9 +4012,8 @@
       <c r="C81" s="2">
         <v>34</v>
       </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_34</v>
+      <c r="D81" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>216</v>
@@ -3713,9 +4041,8 @@
       <c r="C82" s="2">
         <v>35</v>
       </c>
-      <c r="D82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_35</v>
+      <c r="D82" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>216</v>
@@ -3743,9 +4070,8 @@
       <c r="C83" s="2">
         <v>36</v>
       </c>
-      <c r="D83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_36</v>
+      <c r="D83" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>216</v>
@@ -3773,9 +4099,8 @@
       <c r="C84" s="2">
         <v>37</v>
       </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_37</v>
+      <c r="D84" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>217</v>
@@ -3803,9 +4128,8 @@
       <c r="C85" s="2">
         <v>38</v>
       </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_38</v>
+      <c r="D85" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>217</v>
@@ -3833,9 +4157,8 @@
       <c r="C86" s="2">
         <v>39</v>
       </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_39</v>
+      <c r="D86" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>218</v>
@@ -3863,9 +4186,8 @@
       <c r="C87" s="2">
         <v>40</v>
       </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_40</v>
+      <c r="D87" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>219</v>
@@ -3893,9 +4215,8 @@
       <c r="C88" s="2">
         <v>41</v>
       </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_41</v>
+      <c r="D88" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>220</v>
@@ -3923,9 +4244,8 @@
       <c r="C89" s="2">
         <v>42</v>
       </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_42</v>
+      <c r="D89" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>221</v>
@@ -3953,9 +4273,8 @@
       <c r="C90" s="2">
         <v>43</v>
       </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_43</v>
+      <c r="D90" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>222</v>
@@ -3983,9 +4302,8 @@
       <c r="C91" s="2">
         <v>44</v>
       </c>
-      <c r="D91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_44</v>
+      <c r="D91" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>223</v>
@@ -4013,9 +4331,8 @@
       <c r="C92" s="2">
         <v>45</v>
       </c>
-      <c r="D92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_45</v>
+      <c r="D92" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>224</v>
@@ -4043,9 +4360,8 @@
       <c r="C93" s="2">
         <v>46</v>
       </c>
-      <c r="D93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_46</v>
+      <c r="D93" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>225</v>
@@ -4073,9 +4389,8 @@
       <c r="C94" s="2">
         <v>47</v>
       </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_47</v>
+      <c r="D94" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>226</v>
@@ -4103,9 +4418,8 @@
       <c r="C95" s="2">
         <v>48</v>
       </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_48</v>
+      <c r="D95" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>227</v>
@@ -4133,9 +4447,8 @@
       <c r="C96" s="2">
         <v>49</v>
       </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_49</v>
+      <c r="D96" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>227</v>
@@ -4163,9 +4476,8 @@
       <c r="C97" s="2">
         <v>50</v>
       </c>
-      <c r="D97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_50</v>
+      <c r="D97" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>228</v>
@@ -4193,9 +4505,8 @@
       <c r="C98" s="2">
         <v>51</v>
       </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_51</v>
+      <c r="D98" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>228</v>
@@ -4223,9 +4534,8 @@
       <c r="C99" s="2">
         <v>52</v>
       </c>
-      <c r="D99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_52</v>
+      <c r="D99" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>229</v>
@@ -4253,9 +4563,8 @@
       <c r="C100" s="2">
         <v>53</v>
       </c>
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_53</v>
+      <c r="D100" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>229</v>
@@ -4283,9 +4592,8 @@
       <c r="C101" s="2">
         <v>54</v>
       </c>
-      <c r="D101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_54</v>
+      <c r="D101" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>229</v>
@@ -4313,9 +4621,8 @@
       <c r="C102" s="2">
         <v>55</v>
       </c>
-      <c r="D102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_55</v>
+      <c r="D102" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>229</v>
@@ -4343,9 +4650,8 @@
       <c r="C103" s="2">
         <v>56</v>
       </c>
-      <c r="D103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_56</v>
+      <c r="D103" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>229</v>
@@ -4373,9 +4679,8 @@
       <c r="C104" s="2">
         <v>57</v>
       </c>
-      <c r="D104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_57</v>
+      <c r="D104" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>229</v>
@@ -4403,9 +4708,8 @@
       <c r="C105" s="2">
         <v>58</v>
       </c>
-      <c r="D105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_58</v>
+      <c r="D105" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>230</v>
@@ -4433,9 +4737,8 @@
       <c r="C106" s="2">
         <v>59</v>
       </c>
-      <c r="D106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_59</v>
+      <c r="D106" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>231</v>
@@ -4463,9 +4766,8 @@
       <c r="C107" s="2">
         <v>60</v>
       </c>
-      <c r="D107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_60</v>
+      <c r="D107" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>232</v>
@@ -4493,9 +4795,8 @@
       <c r="C108" s="2">
         <v>61</v>
       </c>
-      <c r="D108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_61</v>
+      <c r="D108" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>228</v>
@@ -4523,9 +4824,8 @@
       <c r="C109" s="2">
         <v>62</v>
       </c>
-      <c r="D109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_62</v>
+      <c r="D109" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>233</v>
@@ -4553,9 +4853,8 @@
       <c r="C110" s="2">
         <v>63</v>
       </c>
-      <c r="D110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_63</v>
+      <c r="D110" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>234</v>
@@ -4583,9 +4882,8 @@
       <c r="C111" s="2">
         <v>64</v>
       </c>
-      <c r="D111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_64</v>
+      <c r="D111" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>235</v>
@@ -4613,9 +4911,8 @@
       <c r="C112" s="2">
         <v>65</v>
       </c>
-      <c r="D112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_65</v>
+      <c r="D112" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>235</v>
@@ -4643,9 +4940,8 @@
       <c r="C113" s="2">
         <v>66</v>
       </c>
-      <c r="D113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_66</v>
+      <c r="D113" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>235</v>
@@ -4673,9 +4969,8 @@
       <c r="C114" s="2">
         <v>68</v>
       </c>
-      <c r="D114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_68</v>
+      <c r="D114" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>235</v>
@@ -4703,9 +4998,8 @@
       <c r="C115" s="2">
         <v>69</v>
       </c>
-      <c r="D115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_69</v>
+      <c r="D115" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>236</v>
@@ -4733,9 +5027,8 @@
       <c r="C116" s="2">
         <v>70</v>
       </c>
-      <c r="D116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_70</v>
+      <c r="D116" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>236</v>
@@ -4763,9 +5056,8 @@
       <c r="C117" s="2">
         <v>71</v>
       </c>
-      <c r="D117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_71</v>
+      <c r="D117" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>227</v>
@@ -4793,9 +5085,8 @@
       <c r="C118" s="2">
         <v>31</v>
       </c>
-      <c r="D118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_31</v>
+      <c r="D118" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="E118" t="s">
         <v>165</v>
@@ -4823,9 +5114,8 @@
       <c r="C119" s="2">
         <v>32</v>
       </c>
-      <c r="D119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_32</v>
+      <c r="D119" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="E119" t="s">
         <v>165</v>
@@ -4853,9 +5143,8 @@
       <c r="C120" s="2">
         <v>33</v>
       </c>
-      <c r="D120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_33</v>
+      <c r="D120" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="E120" t="s">
         <v>165</v>
@@ -4883,9 +5172,8 @@
       <c r="C121" s="2">
         <v>34</v>
       </c>
-      <c r="D121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_34</v>
+      <c r="D121" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="E121" t="s">
         <v>165</v>
@@ -4913,9 +5201,8 @@
       <c r="C122" s="2">
         <v>35</v>
       </c>
-      <c r="D122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_35</v>
+      <c r="D122" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E122" t="s">
         <v>165</v>
@@ -4943,9 +5230,8 @@
       <c r="C123" s="2">
         <v>36</v>
       </c>
-      <c r="D123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_36</v>
+      <c r="D123" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="E123" t="s">
         <v>165</v>
@@ -4973,9 +5259,8 @@
       <c r="C124" s="2">
         <v>37</v>
       </c>
-      <c r="D124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_37</v>
+      <c r="D124" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="E124" t="s">
         <v>165</v>
@@ -5003,9 +5288,8 @@
       <c r="C125" s="2">
         <v>39</v>
       </c>
-      <c r="D125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_39</v>
+      <c r="D125" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="E125" t="s">
         <v>165</v>
@@ -5033,9 +5317,8 @@
       <c r="C126" s="2">
         <v>41</v>
       </c>
-      <c r="D126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_41</v>
+      <c r="D126" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="E126" t="s">
         <v>165</v>
@@ -5063,9 +5346,8 @@
       <c r="C127" s="2">
         <v>44</v>
       </c>
-      <c r="D127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_44</v>
+      <c r="D127" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="E127" t="s">
         <v>165</v>
@@ -5093,9 +5375,8 @@
       <c r="C128" s="2">
         <v>46</v>
       </c>
-      <c r="D128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_46</v>
+      <c r="D128" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="E128" t="s">
         <v>165</v>
@@ -5123,9 +5404,8 @@
       <c r="C129" s="2">
         <v>49</v>
       </c>
-      <c r="D129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>GRSPB_49</v>
+      <c r="D129" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="E129" t="s">
         <v>165</v>
@@ -5153,9 +5433,8 @@
       <c r="C130" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D130" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>TBLR_01</v>
+      <c r="D130" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="E130" t="s">
         <v>165</v>
@@ -5183,9 +5462,8 @@
       <c r="C131" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D131" s="2" t="str">
-        <f t="shared" ref="D131:D137" si="2">CONCATENATE(B131,"_",C131)</f>
-        <v>TBLR_02</v>
+      <c r="D131" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="E131" t="s">
         <v>165</v>
@@ -5213,9 +5491,8 @@
       <c r="C132" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TBLR_03</v>
+      <c r="D132" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="E132" t="s">
         <v>165</v>
@@ -5243,9 +5520,8 @@
       <c r="C133" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TBLR_04</v>
+      <c r="D133" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="E133" t="s">
         <v>165</v>
@@ -5273,9 +5549,8 @@
       <c r="C134" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TBLR_05</v>
+      <c r="D134" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="E134" t="s">
         <v>165</v>
@@ -5303,9 +5578,8 @@
       <c r="C135" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TBLR_06</v>
+      <c r="D135" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="E135" t="s">
         <v>165</v>
@@ -5333,9 +5607,8 @@
       <c r="C136" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TBLR_07</v>
+      <c r="D136" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="E136" t="s">
         <v>165</v>
@@ -5363,9 +5636,8 @@
       <c r="C137" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TBLR_08</v>
+      <c r="D137" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="E137" t="s">
         <v>165</v>

--- a/raw_data/metadata.xlsx
+++ b/raw_data/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07A264-0A83-3E40-B9C8-9F57C90F3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3929DB-3286-2F48-A493-9FEE7481C208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16260" xr2:uid="{1D6D6247-8763-7240-99C2-409594371EA5}"/>
+    <workbookView xWindow="1620" yWindow="920" windowWidth="27640" windowHeight="16260" xr2:uid="{1D6D6247-8763-7240-99C2-409594371EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,64 +1211,64 @@
     <t>FER_71</t>
   </si>
   <si>
-    <t>GRSPB_31</t>
-  </si>
-  <si>
-    <t>GRSPB_32</t>
-  </si>
-  <si>
-    <t>GRSPB_33</t>
-  </si>
-  <si>
-    <t>GRSPB_34</t>
-  </si>
-  <si>
-    <t>GRSPB_35</t>
-  </si>
-  <si>
-    <t>GRSPB_36</t>
-  </si>
-  <si>
-    <t>GRSPB_37</t>
-  </si>
-  <si>
-    <t>GRSPB_39</t>
-  </si>
-  <si>
-    <t>GRSPB_41</t>
-  </si>
-  <si>
-    <t>GRSPB_44</t>
-  </si>
-  <si>
-    <t>GRSPB_46</t>
-  </si>
-  <si>
-    <t>GRSPB_49</t>
-  </si>
-  <si>
-    <t>TBLR_01</t>
-  </si>
-  <si>
-    <t>TBLR_02</t>
-  </si>
-  <si>
-    <t>TBLR_03</t>
-  </si>
-  <si>
-    <t>TBLR_04</t>
-  </si>
-  <si>
-    <t>TBLR_05</t>
-  </si>
-  <si>
-    <t>TBLR_06</t>
-  </si>
-  <si>
-    <t>TBLR_07</t>
-  </si>
-  <si>
-    <t>TBLR_08</t>
+    <t>REF_01</t>
+  </si>
+  <si>
+    <t>REF_02</t>
+  </si>
+  <si>
+    <t>REF_03</t>
+  </si>
+  <si>
+    <t>REF_04</t>
+  </si>
+  <si>
+    <t>REF_05</t>
+  </si>
+  <si>
+    <t>REF_06</t>
+  </si>
+  <si>
+    <t>REF_07</t>
+  </si>
+  <si>
+    <t>REF_08</t>
+  </si>
+  <si>
+    <t>REF_09</t>
+  </si>
+  <si>
+    <t>REF_10</t>
+  </si>
+  <si>
+    <t>REF_11</t>
+  </si>
+  <si>
+    <t>REF_12</t>
+  </si>
+  <si>
+    <t>REF_13</t>
+  </si>
+  <si>
+    <t>REF_14</t>
+  </si>
+  <si>
+    <t>REF_15</t>
+  </si>
+  <si>
+    <t>REF_16</t>
+  </si>
+  <si>
+    <t>REF_17</t>
+  </si>
+  <si>
+    <t>REF_18</t>
+  </si>
+  <si>
+    <t>REF_19</t>
+  </si>
+  <si>
+    <t>REF_20</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C20FF8-CFFA-9A48-91C2-CA4D661BB7BE}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5085,7 +5085,7 @@
       <c r="C118" s="2">
         <v>31</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s">
         <v>391</v>
       </c>
       <c r="E118" t="s">
@@ -5114,7 +5114,7 @@
       <c r="C119" s="2">
         <v>32</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s">
         <v>392</v>
       </c>
       <c r="E119" t="s">
@@ -5143,7 +5143,7 @@
       <c r="C120" s="2">
         <v>33</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>393</v>
       </c>
       <c r="E120" t="s">
@@ -5172,7 +5172,7 @@
       <c r="C121" s="2">
         <v>34</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s">
         <v>394</v>
       </c>
       <c r="E121" t="s">
@@ -5201,7 +5201,7 @@
       <c r="C122" s="2">
         <v>35</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" t="s">
         <v>395</v>
       </c>
       <c r="E122" t="s">
@@ -5230,7 +5230,7 @@
       <c r="C123" s="2">
         <v>36</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" t="s">
         <v>396</v>
       </c>
       <c r="E123" t="s">
@@ -5259,7 +5259,7 @@
       <c r="C124" s="2">
         <v>37</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>397</v>
       </c>
       <c r="E124" t="s">
@@ -5288,7 +5288,7 @@
       <c r="C125" s="2">
         <v>39</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" t="s">
         <v>398</v>
       </c>
       <c r="E125" t="s">
@@ -5317,7 +5317,7 @@
       <c r="C126" s="2">
         <v>41</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" t="s">
         <v>399</v>
       </c>
       <c r="E126" t="s">
@@ -5346,7 +5346,7 @@
       <c r="C127" s="2">
         <v>44</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" t="s">
         <v>400</v>
       </c>
       <c r="E127" t="s">
@@ -5375,7 +5375,7 @@
       <c r="C128" s="2">
         <v>46</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s">
         <v>401</v>
       </c>
       <c r="E128" t="s">
@@ -5404,7 +5404,7 @@
       <c r="C129" s="2">
         <v>49</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s">
         <v>402</v>
       </c>
       <c r="E129" t="s">
@@ -5433,7 +5433,7 @@
       <c r="C130" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s">
         <v>403</v>
       </c>
       <c r="E130" t="s">
@@ -5462,7 +5462,7 @@
       <c r="C131" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" t="s">
         <v>404</v>
       </c>
       <c r="E131" t="s">
@@ -5491,7 +5491,7 @@
       <c r="C132" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" t="s">
         <v>405</v>
       </c>
       <c r="E132" t="s">
@@ -5520,7 +5520,7 @@
       <c r="C133" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" t="s">
         <v>406</v>
       </c>
       <c r="E133" t="s">
@@ -5549,7 +5549,7 @@
       <c r="C134" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>407</v>
       </c>
       <c r="E134" t="s">
@@ -5578,7 +5578,7 @@
       <c r="C135" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" t="s">
         <v>408</v>
       </c>
       <c r="E135" t="s">
@@ -5607,7 +5607,7 @@
       <c r="C136" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s">
         <v>409</v>
       </c>
       <c r="E136" t="s">
@@ -5636,7 +5636,7 @@
       <c r="C137" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" t="s">
         <v>410</v>
       </c>
       <c r="E137" t="s">

--- a/raw_data/metadata.xlsx
+++ b/raw_data/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3929DB-3286-2F48-A493-9FEE7481C208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DAEEE-4F87-7D43-A754-4865418393FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="920" windowWidth="27640" windowHeight="16260" xr2:uid="{1D6D6247-8763-7240-99C2-409594371EA5}"/>
+    <workbookView xWindow="1160" yWindow="720" windowWidth="27640" windowHeight="16260" xr2:uid="{1D6D6247-8763-7240-99C2-409594371EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="412">
   <si>
     <t>sample_id</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>REF_20</t>
+  </si>
+  <si>
+    <t>dist_from_df</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1353,6 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C20FF8-CFFA-9A48-91C2-CA4D661BB7BE}">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118:D137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1678,11 +1682,12 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1702,16 +1707,19 @@
         <v>164</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1725,22 +1733,25 @@
         <v>275</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4052386</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1259.1600000000001</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1759,17 +1770,20 @@
       <c r="F3" s="2">
         <v>4052386</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>159</v>
+      <c r="G3" s="9">
+        <v>1259.1600000000001</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1788,17 +1802,20 @@
       <c r="F4" s="2">
         <v>4051749</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>159</v>
+      <c r="G4" s="9">
+        <v>1956.01</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1817,17 +1834,20 @@
       <c r="F5" s="2">
         <v>4051738</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>159</v>
+      <c r="G5" s="9">
+        <v>1982.3899999999999</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1846,17 +1866,20 @@
       <c r="F6" s="2">
         <v>4051735</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>159</v>
+      <c r="G6" s="9">
+        <v>1982.3899999999999</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,17 +1898,20 @@
       <c r="F7" s="2">
         <v>4051754</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>159</v>
+      <c r="G7" s="9">
+        <v>2240.33</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1904,17 +1930,20 @@
       <c r="F8" s="2">
         <v>4052882</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>159</v>
+      <c r="G8" s="9">
+        <v>681.94999999999993</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1933,17 +1962,20 @@
       <c r="F9" s="2">
         <v>4052702</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>159</v>
+      <c r="G9" s="9">
+        <v>942.57999999999993</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1962,17 +1994,20 @@
       <c r="F10" s="2">
         <v>4051107</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>159</v>
+      <c r="G10" s="9">
+        <v>4570.7700000000004</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1991,17 +2026,20 @@
       <c r="F11" s="2">
         <v>4053309</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>159</v>
+      <c r="G11" s="9">
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,17 +2058,20 @@
       <c r="F12" s="2">
         <v>4053309</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>159</v>
+      <c r="G12" s="9">
+        <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2049,17 +2090,20 @@
       <c r="F13" s="2">
         <v>4052373</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>159</v>
+      <c r="G13" s="9">
+        <v>1295.98</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2078,17 +2122,20 @@
       <c r="F14" s="2">
         <v>4051806</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>159</v>
+      <c r="G14" s="9">
+        <v>2342.58</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2107,17 +2154,20 @@
       <c r="F15" s="2">
         <v>4050212</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>159</v>
+      <c r="G15" s="9">
+        <v>5797.97</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2136,17 +2186,20 @@
       <c r="F16" s="2">
         <v>4050101</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>159</v>
+      <c r="G16" s="9">
+        <v>5995.6500000000005</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -2165,17 +2218,20 @@
       <c r="F17" s="2">
         <v>4050101</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>159</v>
+      <c r="G17" s="9">
+        <v>5995.6500000000005</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -2194,17 +2250,20 @@
       <c r="F18" s="2">
         <v>4052933</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>159</v>
+      <c r="G18" s="9">
+        <v>622.92999999999995</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,17 +2282,20 @@
       <c r="F19" s="2">
         <v>4052818</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>159</v>
+      <c r="G19" s="9">
+        <v>799.54</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -2252,17 +2314,20 @@
       <c r="F20" s="2">
         <v>4051795</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>159</v>
+      <c r="G20" s="9">
+        <v>3168.06</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2281,17 +2346,20 @@
       <c r="F21" s="2">
         <v>4051716</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>159</v>
+      <c r="G21" s="9">
+        <v>2078.0299999999997</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2310,17 +2378,20 @@
       <c r="F22" s="2">
         <v>4052702</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>159</v>
+      <c r="G22" s="9">
+        <v>942.57999999999993</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2339,17 +2410,20 @@
       <c r="F23" s="2">
         <v>4050105</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>159</v>
+      <c r="G23" s="9">
+        <v>6286.6600000000008</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -2368,17 +2442,20 @@
       <c r="F24" s="2">
         <v>4051764</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>159</v>
+      <c r="G24" s="9">
+        <v>1934.79</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2397,17 +2474,20 @@
       <c r="F25" s="2">
         <v>4051718</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>159</v>
+      <c r="G25" s="9">
+        <v>2078.0299999999997</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2426,17 +2506,20 @@
       <c r="F26" s="2">
         <v>4051804</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>159</v>
+      <c r="G26" s="9">
+        <v>2342.58</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2455,17 +2538,20 @@
       <c r="F27" s="2">
         <v>4051804</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>159</v>
+      <c r="G27" s="9">
+        <v>2342.58</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2484,17 +2570,20 @@
       <c r="F28" s="2">
         <v>4051799</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>159</v>
+      <c r="G28" s="9">
+        <v>3168.06</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2513,17 +2602,20 @@
       <c r="F29" s="2">
         <v>4052905</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>159</v>
+      <c r="G29" s="9">
+        <v>659.02</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -2542,17 +2634,20 @@
       <c r="F30" s="2">
         <v>4052882</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>159</v>
+      <c r="G30" s="9">
+        <v>681.94999999999993</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2571,17 +2666,20 @@
       <c r="F31" s="2">
         <v>4052882</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>159</v>
+      <c r="G31" s="9">
+        <v>681.94999999999993</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2600,17 +2698,20 @@
       <c r="F32" s="2">
         <v>4052882</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>159</v>
+      <c r="G32" s="9">
+        <v>681.94999999999993</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2629,17 +2730,20 @@
       <c r="F33" s="2">
         <v>4052882</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>159</v>
+      <c r="G33" s="9">
+        <v>681.94999999999993</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2658,17 +2762,20 @@
       <c r="F34" s="2">
         <v>4052882</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>159</v>
+      <c r="G34" s="9">
+        <v>681.94999999999993</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2687,17 +2794,20 @@
       <c r="F35" s="2">
         <v>4052786</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>159</v>
+      <c r="G35" s="9">
+        <v>799.54</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -2716,17 +2826,20 @@
       <c r="F36" s="2">
         <v>4051713</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>159</v>
+      <c r="G36" s="9">
+        <v>2078.0299999999997</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -2745,17 +2858,20 @@
       <c r="F37" s="2">
         <v>4051745</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>159</v>
+      <c r="G37" s="9">
+        <v>1964.07</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -2774,17 +2890,20 @@
       <c r="F38" s="2">
         <v>4051745</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>159</v>
+      <c r="G38" s="9">
+        <v>1964.07</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -2803,17 +2922,20 @@
       <c r="F39" s="2">
         <v>4051093</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>159</v>
+      <c r="G39" s="9">
+        <v>4490.25</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2832,17 +2954,20 @@
       <c r="F40" s="2">
         <v>4052558</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>159</v>
+      <c r="G40" s="9">
+        <v>1083.21</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2861,17 +2986,20 @@
       <c r="F41" s="2">
         <v>4052558</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>159</v>
+      <c r="G41" s="9">
+        <v>1083.21</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2890,17 +3018,20 @@
       <c r="F42" s="2">
         <v>4052375</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>159</v>
+      <c r="G42" s="9">
+        <v>1295.98</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2919,17 +3050,20 @@
       <c r="F43" s="2">
         <v>4052375</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>159</v>
+      <c r="G43" s="9">
+        <v>1295.98</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -2948,17 +3082,20 @@
       <c r="F44" s="2">
         <v>4052375</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>159</v>
+      <c r="G44" s="9">
+        <v>1295.98</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -2977,17 +3114,20 @@
       <c r="F45" s="2">
         <v>4051791</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>159</v>
+      <c r="G45" s="9">
+        <v>2318.5099999999998</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -3006,17 +3146,20 @@
       <c r="F46" s="2">
         <v>4051792</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>159</v>
+      <c r="G46" s="9">
+        <v>2318.5099999999998</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -3035,17 +3178,20 @@
       <c r="F47" s="2">
         <v>4051813</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>159</v>
+      <c r="G47" s="9">
+        <v>2349.1799999999998</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -3064,17 +3210,20 @@
       <c r="F48" s="2">
         <v>4041748</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>159</v>
+      <c r="G48" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -3093,17 +3242,20 @@
       <c r="F49" s="2">
         <v>4049186</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>159</v>
+      <c r="G49" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -3122,17 +3274,20 @@
       <c r="F50" s="2">
         <v>4049186</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>159</v>
+      <c r="G50" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -3151,17 +3306,20 @@
       <c r="F51" s="2">
         <v>4049186</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>159</v>
+      <c r="G51" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -3180,17 +3338,20 @@
       <c r="F52" s="2">
         <v>4049186</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>159</v>
+      <c r="G52" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -3209,17 +3370,20 @@
       <c r="F53" s="2">
         <v>4049186</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>159</v>
+      <c r="G53" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -3238,17 +3402,20 @@
       <c r="F54" s="2">
         <v>4049186</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>159</v>
+      <c r="G54" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -3267,17 +3434,20 @@
       <c r="F55" s="2">
         <v>4049186</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>159</v>
+      <c r="G55" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -3296,17 +3466,20 @@
       <c r="F56" s="2">
         <v>4049136</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>159</v>
+      <c r="G56" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
@@ -3325,17 +3498,20 @@
       <c r="F57" s="2">
         <v>4049186</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>159</v>
+      <c r="G57" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -3354,17 +3530,20 @@
       <c r="F58" s="3">
         <v>4049186</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>159</v>
+      <c r="G58" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -3383,17 +3562,20 @@
       <c r="F59" s="2">
         <v>4049186</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>159</v>
+      <c r="G59" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
@@ -3412,17 +3594,20 @@
       <c r="F60" s="2">
         <v>4049186</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>159</v>
+      <c r="G60" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
@@ -3441,17 +3626,20 @@
       <c r="F61" s="3">
         <v>4049186</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>159</v>
+      <c r="G61" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>103</v>
       </c>
@@ -3470,17 +3658,20 @@
       <c r="F62" s="2">
         <v>4049186</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>159</v>
+      <c r="G62" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>104</v>
       </c>
@@ -3499,17 +3690,20 @@
       <c r="F63" s="2">
         <v>4049186</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>159</v>
+      <c r="G63" s="9">
+        <v>8613.9700000000012</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>105</v>
       </c>
@@ -3528,17 +3722,20 @@
       <c r="F64" s="2">
         <v>4050104</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>159</v>
+      <c r="G64" s="9">
+        <v>6317.380000000001</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
@@ -3557,17 +3754,20 @@
       <c r="F65" s="2">
         <v>4050104</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>159</v>
+      <c r="G65" s="9">
+        <v>6317.380000000001</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>107</v>
       </c>
@@ -3586,17 +3786,20 @@
       <c r="F66" s="2">
         <v>4048631</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>159</v>
+      <c r="G66" s="9">
+        <v>12666.370000000004</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
@@ -3615,17 +3818,20 @@
       <c r="F67" s="2">
         <v>4048644</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>159</v>
+      <c r="G67" s="9">
+        <v>12734.380000000005</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>109</v>
       </c>
@@ -3644,17 +3850,20 @@
       <c r="F68" s="3">
         <v>4048638</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>159</v>
+      <c r="G68" s="9">
+        <v>12734.380000000005</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>110</v>
       </c>
@@ -3673,17 +3882,20 @@
       <c r="F69" s="2">
         <v>4048661</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>159</v>
+      <c r="G69" s="9">
+        <v>12967.650000000005</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
@@ -3702,17 +3914,20 @@
       <c r="F70" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>159</v>
+      <c r="G70" s="9">
+        <v>13944.970000000007</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>112</v>
       </c>
@@ -3731,17 +3946,20 @@
       <c r="F71" s="2">
         <v>4048793</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>159</v>
+      <c r="G71" s="9">
+        <v>13944.970000000007</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -3760,17 +3978,20 @@
       <c r="F72" s="2">
         <v>4048635</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>159</v>
+      <c r="G72" s="9">
+        <v>14312.610000000006</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -3789,17 +4010,20 @@
       <c r="F73" s="2">
         <v>4049469</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>159</v>
+      <c r="G73" s="9">
+        <v>15837.420000000006</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>115</v>
       </c>
@@ -3818,17 +4042,20 @@
       <c r="F74" s="2">
         <v>4048721</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>159</v>
+      <c r="G74" s="9">
+        <v>13192.270000000006</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
@@ -3847,17 +4074,20 @@
       <c r="F75" s="2">
         <v>4049790</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>159</v>
+      <c r="G75" s="9">
+        <v>7600.5100000000011</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
@@ -3876,17 +4106,20 @@
       <c r="F76" s="2">
         <v>4050181</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>159</v>
+      <c r="G76" s="9">
+        <v>17031.800000000007</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
@@ -3905,17 +4138,20 @@
       <c r="F77" s="2">
         <v>4049626</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>159</v>
+      <c r="G77" s="9">
+        <v>17916.28000000001</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>119</v>
       </c>
@@ -3934,17 +4170,20 @@
       <c r="F78" s="2">
         <v>4050015</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>159</v>
+      <c r="G78" s="9">
+        <v>7056.8500000000013</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -3963,17 +4202,20 @@
       <c r="F79" s="2">
         <v>4049528</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>159</v>
+      <c r="G79" s="9">
+        <v>8053.1100000000015</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>121</v>
       </c>
@@ -3992,17 +4234,20 @@
       <c r="F80" s="2">
         <v>4049186</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>159</v>
+      <c r="G80" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
@@ -4021,17 +4266,20 @@
       <c r="F81" s="2">
         <v>4048313</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>159</v>
+      <c r="G81" s="9">
+        <v>10462.430000000002</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -4050,17 +4298,20 @@
       <c r="F82" s="2">
         <v>4048313</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>159</v>
+      <c r="G82" s="9">
+        <v>10462.430000000002</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -4079,17 +4330,20 @@
       <c r="F83" s="2">
         <v>4048313</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>159</v>
+      <c r="G83" s="9">
+        <v>10462.430000000002</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>125</v>
       </c>
@@ -4108,17 +4362,20 @@
       <c r="F84" s="2">
         <v>4047966</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>159</v>
+      <c r="G84" s="9">
+        <v>10929.640000000003</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
@@ -4137,17 +4394,20 @@
       <c r="F85" s="2">
         <v>4047966</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>159</v>
+      <c r="G85" s="9">
+        <v>10929.640000000003</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>127</v>
       </c>
@@ -4166,17 +4426,20 @@
       <c r="F86" s="2">
         <v>4047930</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>159</v>
+      <c r="G86" s="9">
+        <v>11139.010000000004</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>128</v>
       </c>
@@ -4195,17 +4458,20 @@
       <c r="F87" s="2">
         <v>4050111</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>159</v>
+      <c r="G87" s="9">
+        <v>17360.310000000009</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>129</v>
       </c>
@@ -4224,17 +4490,20 @@
       <c r="F88" s="2">
         <v>4050090</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>159</v>
+      <c r="G88" s="9">
+        <v>17423.89000000001</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>130</v>
       </c>
@@ -4253,17 +4522,20 @@
       <c r="F89" s="2">
         <v>4049744</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>159</v>
+      <c r="G89" s="9">
+        <v>16280.420000000006</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4282,17 +4554,20 @@
       <c r="F90" s="2">
         <v>4050208</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>159</v>
+      <c r="G90" s="9">
+        <v>17113.410000000007</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>132</v>
       </c>
@@ -4311,17 +4586,20 @@
       <c r="F91" s="2">
         <v>4048202</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>159</v>
+      <c r="G91" s="9">
+        <v>10655.960000000003</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -4340,17 +4618,20 @@
       <c r="F92" s="2">
         <v>4048318</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>159</v>
+      <c r="G92" s="9">
+        <v>10462.430000000002</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>134</v>
       </c>
@@ -4369,17 +4650,20 @@
       <c r="F93" s="2">
         <v>4049067</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>159</v>
+      <c r="G93" s="9">
+        <v>9395.4700000000012</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>135</v>
       </c>
@@ -4398,17 +4682,20 @@
       <c r="F94" s="2">
         <v>4049649</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>159</v>
+      <c r="G94" s="9">
+        <v>7868.4400000000014</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>136</v>
       </c>
@@ -4427,17 +4714,20 @@
       <c r="F95" s="2">
         <v>4050015</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>159</v>
+      <c r="G95" s="9">
+        <v>7056.8500000000013</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>137</v>
       </c>
@@ -4456,17 +4746,20 @@
       <c r="F96" s="2">
         <v>4050015</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>159</v>
+      <c r="G96" s="9">
+        <v>7056.8500000000013</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>138</v>
       </c>
@@ -4485,17 +4778,20 @@
       <c r="F97" s="2">
         <v>4049239</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>159</v>
+      <c r="G97" s="9">
+        <v>8463.8000000000011</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>139</v>
       </c>
@@ -4514,17 +4810,20 @@
       <c r="F98" s="2">
         <v>4049239</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>159</v>
+      <c r="G98" s="9">
+        <v>8463.8000000000011</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>140</v>
       </c>
@@ -4543,17 +4842,20 @@
       <c r="F99" s="2">
         <v>4049178</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>159</v>
+      <c r="G99" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
@@ -4572,17 +4874,20 @@
       <c r="F100" s="2">
         <v>4049178</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>159</v>
+      <c r="G100" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>142</v>
       </c>
@@ -4601,17 +4906,20 @@
       <c r="F101" s="2">
         <v>4049178</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>159</v>
+      <c r="G101" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>143</v>
       </c>
@@ -4630,17 +4938,20 @@
       <c r="F102" s="2">
         <v>4049178</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>159</v>
+      <c r="G102" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>144</v>
       </c>
@@ -4659,17 +4970,20 @@
       <c r="F103" s="2">
         <v>4049178</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>159</v>
+      <c r="G103" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>145</v>
       </c>
@@ -4688,17 +5002,20 @@
       <c r="F104" s="2">
         <v>4049178</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>159</v>
+      <c r="G104" s="9">
+        <v>9082.880000000001</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>146</v>
       </c>
@@ -4717,17 +5034,20 @@
       <c r="F105" s="2">
         <v>4048916</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>159</v>
+      <c r="G105" s="9">
+        <v>9583.510000000002</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>147</v>
       </c>
@@ -4746,17 +5066,20 @@
       <c r="F106" s="2">
         <v>4048646</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>159</v>
+      <c r="G106" s="9">
+        <v>10074.350000000002</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>148</v>
       </c>
@@ -4775,17 +5098,20 @@
       <c r="F107" s="2">
         <v>4048426</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>159</v>
+      <c r="G107" s="9">
+        <v>10298.670000000002</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>149</v>
       </c>
@@ -4804,17 +5130,20 @@
       <c r="F108" s="2">
         <v>4049239</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>159</v>
+      <c r="G108" s="9">
+        <v>8463.8000000000011</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
@@ -4833,17 +5162,20 @@
       <c r="F109" s="2">
         <v>4050021</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>159</v>
+      <c r="G109" s="9">
+        <v>6960.1000000000013</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
@@ -4862,17 +5194,20 @@
       <c r="F110" s="2">
         <v>4050029</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>159</v>
+      <c r="G110" s="9">
+        <v>6960.1000000000013</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>152</v>
       </c>
@@ -4891,17 +5226,20 @@
       <c r="F111" s="2">
         <v>4050011</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>159</v>
+      <c r="G111" s="9">
+        <v>7025.9000000000015</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>153</v>
       </c>
@@ -4920,17 +5258,20 @@
       <c r="F112" s="2">
         <v>4050011</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>159</v>
+      <c r="G112" s="9">
+        <v>7025.9000000000015</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>154</v>
       </c>
@@ -4949,17 +5290,20 @@
       <c r="F113" s="2">
         <v>4050011</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>159</v>
+      <c r="G113" s="9">
+        <v>7025.9000000000015</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
@@ -4978,17 +5322,20 @@
       <c r="F114" s="2">
         <v>4050010</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>159</v>
+      <c r="G114" s="9">
+        <v>7025.9000000000015</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>156</v>
       </c>
@@ -5007,17 +5354,20 @@
       <c r="F115" s="2">
         <v>4050003</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>159</v>
+      <c r="G115" s="9">
+        <v>7262.6000000000013</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>157</v>
       </c>
@@ -5036,17 +5386,20 @@
       <c r="F116" s="2">
         <v>4050003</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>159</v>
+      <c r="G116" s="9">
+        <v>7262.6000000000013</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
@@ -5065,17 +5418,20 @@
       <c r="F117" s="2">
         <v>4050015</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>159</v>
+      <c r="G117" s="9">
+        <v>7056.8500000000013</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
@@ -5094,17 +5450,17 @@
       <c r="F118" t="s">
         <v>165</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
@@ -5123,17 +5479,17 @@
       <c r="F119" t="s">
         <v>165</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>244</v>
       </c>
@@ -5152,17 +5508,17 @@
       <c r="F120" t="s">
         <v>165</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>245</v>
       </c>
@@ -5181,17 +5537,17 @@
       <c r="F121" t="s">
         <v>165</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -5210,17 +5566,17 @@
       <c r="F122" t="s">
         <v>165</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>247</v>
       </c>
@@ -5239,17 +5595,17 @@
       <c r="F123" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="J123" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>248</v>
       </c>
@@ -5268,17 +5624,17 @@
       <c r="F124" t="s">
         <v>165</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
@@ -5297,17 +5653,17 @@
       <c r="F125" t="s">
         <v>165</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -5326,17 +5682,17 @@
       <c r="F126" t="s">
         <v>165</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -5355,17 +5711,17 @@
       <c r="F127" t="s">
         <v>165</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -5384,17 +5740,17 @@
       <c r="F128" t="s">
         <v>165</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>254</v>
       </c>
@@ -5413,17 +5769,17 @@
       <c r="F129" t="s">
         <v>165</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>255</v>
       </c>
@@ -5442,17 +5798,17 @@
       <c r="F130" t="s">
         <v>165</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
@@ -5471,17 +5827,17 @@
       <c r="F131" t="s">
         <v>165</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="J131" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>259</v>
       </c>
@@ -5500,17 +5856,17 @@
       <c r="F132" t="s">
         <v>165</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="J132" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>260</v>
       </c>
@@ -5529,17 +5885,17 @@
       <c r="F133" t="s">
         <v>165</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>261</v>
       </c>
@@ -5558,17 +5914,17 @@
       <c r="F134" t="s">
         <v>165</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="J134" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -5587,17 +5943,17 @@
       <c r="F135" t="s">
         <v>165</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="J135" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>263</v>
       </c>
@@ -5616,17 +5972,17 @@
       <c r="F136" t="s">
         <v>165</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>264</v>
       </c>
@@ -5645,13 +6001,13 @@
       <c r="F137" t="s">
         <v>165</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="J137" s="2" t="s">
         <v>242</v>
       </c>
     </row>
